--- a/publications_2020.xlsx
+++ b/publications_2020.xlsx
@@ -13,22 +13,70 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>A. Khan, S. Bhalla, “Communication Challenges for Sustainability: Variations in Hindi and English Media Coverage of Urban Environment Issues,” in Institute of Public Enterprise International Conference, April 2020.</t>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>A. Khan, S. Bhalla</t>
+    </r>
+    <r>
+      <t>, “Communication Challenges for Sustainability: Variations in Hindi and English Media Coverage of Urban Environment Issues,” in Institute of Public Enterprise International Conference, April 2020.</t>
+    </r>
   </si>
   <si>
-    <t>Mrinmoy Chakrabarty, Makoto Wada. Perceptual effects of fast and automatic visual ensemble statistics from faces in individuals with typical development and autism spectrum conditions. Scientific Reports [Nature Publishing Group], 10 (2169), 2020.</t>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Mrinmoy Chakrabarty, Makoto Wada</t>
+    </r>
+    <r>
+      <t>. Perceptual effects of fast and automatic visual ensemble statistics from faces in individuals with typical development and autism spectrum conditions. Scientific Reports [Nature Publishing Group], 10 (2169), 2020.</t>
+    </r>
   </si>
   <si>
-    <t>Nishad Patnaik,Forthcoming: Heidegger and the Politics of Essence", translated into Bengali, in Ebong Mushayera</t>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Nishad Patnaik</t>
+    </r>
+    <r>
+      <t>,Forthcoming: Heidegger and the Politics of Essence", translated into Bengali, in Ebong Mushayera</t>
+    </r>
   </si>
   <si>
-    <t>Paro Mishra, Forthcoming. Mobile Phones, Family Connections, and Family Conflicts: Ethnographic Realities from the Lives of Cross-region Migrant Brides in North India. In Lakshmi Lingam and Nolwazi Mkhwanazi (Eds.) Smart Phones, Social Media and Gender Faultlines: Southern Perspectives on Emerging Perspectives. Routledge</t>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Paro Mishra</t>
+    </r>
+    <r>
+      <t>, Forthcoming. Mobile Phones, Family Connections, and Family Conflicts: Ethnographic Realities from the Lives of Cross-region Migrant Brides in North India. In Lakshmi Lingam and Nolwazi Mkhwanazi (Eds.) Smart Phones, Social Media and Gender Faultlines: Southern Perspectives on Emerging Perspectives. Routledge</t>
+    </r>
   </si>
   <si>
-    <t>Paro Mishra, Forthcoming. (With Ravinder Kaur). Gender Imbalance, Marriage Squeeze and Multiple Biological Clocks: Exploring the Challenges to Intergenerational Contract in North India. Special Issue on Trapped in the Hourglass: Time, Reproductive Decline and the Problematization of Ageing. Anthropology and Aging.</t>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Paro Mishra</t>
+    </r>
+    <r>
+      <t>, Forthcoming. (With Ravinder Kaur). Gender Imbalance, Marriage Squeeze and Multiple Biological Clocks: Exploring the Challenges to Intergenerational Contract in North India. Special Issue on Trapped in the Hourglass: Time, Reproductive Decline and the Problematization of Ageing. Anthropology and Aging.</t>
+    </r>
   </si>
   <si>
-    <t>Ray, S. B., Mishra, M. V., &amp; Srinivasan, N. (2020). Attentional blink with emotional faces depends on emotional expressions: a relative positive valence advantage. Cognition and Emotion, 1-20.</t>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Ray, S. B., Mishra, M. V., &amp; Srinivasan, N</t>
+    </r>
+    <r>
+      <t>. (2020). Attentional blink with emotional faces depends on emotional expressions: a relative positive valence advantage. Cognition and Emotion, 1-20.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -105,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -117,9 +165,6 @@
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
@@ -363,7 +408,7 @@
       <c r="D2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3"/>
@@ -371,7 +416,7 @@
       <c r="D3" s="3"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3"/>
@@ -379,7 +424,7 @@
       <c r="D4" s="3"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3"/>
@@ -395,428 +440,428 @@
       <c r="D6" s="3"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="6"/>
+      <c r="A7" s="5"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="6"/>
+      <c r="A8" s="5"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="6"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="6"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="6"/>
+      <c r="A11" s="5"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="6"/>
+      <c r="A12" s="5"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="6"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="6"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="6"/>
+      <c r="A16" s="5"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="6"/>
+      <c r="A17" s="5"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="6"/>
+      <c r="A18" s="5"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="6"/>
+      <c r="A19" s="5"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="6"/>
+      <c r="A20" s="5"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="6"/>
+      <c r="A21" s="5"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="6"/>
+      <c r="A22" s="5"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="6"/>
+      <c r="A23" s="5"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="6"/>
+      <c r="A24" s="5"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="6"/>
+      <c r="A25" s="5"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="6"/>
+      <c r="A26" s="5"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="6"/>
+      <c r="A27" s="5"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="6"/>
+      <c r="A28" s="5"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="6"/>
+      <c r="A29" s="5"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="6"/>
+      <c r="A30" s="5"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="6"/>
+      <c r="A31" s="5"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="6"/>
+      <c r="A32" s="5"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="6"/>
+      <c r="A33" s="5"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="6"/>
+      <c r="A34" s="5"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="6"/>
+      <c r="A35" s="5"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="6"/>
+      <c r="A36" s="5"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="6"/>
+      <c r="A37" s="5"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="6"/>
+      <c r="A38" s="5"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="6"/>
+      <c r="A39" s="5"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="6"/>
+      <c r="A40" s="5"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="6"/>
+      <c r="A41" s="5"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="6"/>
+      <c r="A42" s="5"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="6"/>
+      <c r="A43" s="5"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="6"/>
+      <c r="A44" s="5"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="6"/>
+      <c r="A45" s="5"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="6"/>
+      <c r="A46" s="5"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="6"/>
+      <c r="A47" s="5"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="6"/>
+      <c r="A48" s="5"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="6"/>
+      <c r="A49" s="5"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="6"/>
+      <c r="A50" s="5"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="6"/>
+      <c r="A51" s="5"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="6"/>
+      <c r="A52" s="5"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="6"/>
+      <c r="A53" s="5"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="6"/>
+      <c r="A54" s="5"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="6"/>
+      <c r="A55" s="5"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="6"/>
+      <c r="A56" s="5"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="6"/>
+      <c r="A57" s="5"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="6"/>
+      <c r="A58" s="5"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="6"/>
+      <c r="A59" s="5"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="6"/>
+      <c r="A60" s="5"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="6"/>
+      <c r="A61" s="5"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="6"/>
+      <c r="A62" s="5"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="6"/>
+      <c r="A63" s="5"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="6"/>
+      <c r="A64" s="5"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="6"/>
+      <c r="A65" s="5"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="6"/>
+      <c r="A66" s="5"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="6"/>
+      <c r="A67" s="5"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="6"/>
+      <c r="A68" s="5"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="6"/>
+      <c r="A69" s="5"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="6"/>
+      <c r="A70" s="5"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="6"/>
+      <c r="A71" s="5"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="6"/>
+      <c r="A72" s="5"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="6"/>
+      <c r="A73" s="5"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="6"/>
+      <c r="A74" s="5"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="6"/>
+      <c r="A75" s="5"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="6"/>
+      <c r="A76" s="5"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="6"/>
+      <c r="A77" s="5"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="6"/>
+      <c r="A78" s="5"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="6"/>
+      <c r="A79" s="5"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="6"/>
+      <c r="A80" s="5"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="6"/>
+      <c r="A81" s="5"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="8"/>
+      <c r="A82" s="7"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="8"/>
+      <c r="A83" s="7"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="8"/>
+      <c r="A84" s="7"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="8"/>
+      <c r="A85" s="7"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="6"/>
+      <c r="A86" s="5"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="6"/>
+      <c r="A87" s="5"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="6"/>
+      <c r="A88" s="5"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="6"/>
+      <c r="A89" s="5"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="6"/>
+      <c r="A90" s="5"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="6"/>
+      <c r="A91" s="5"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="6"/>
+      <c r="A92" s="5"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="6"/>
+      <c r="A93" s="5"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="6"/>
+      <c r="A94" s="5"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="6"/>
+      <c r="A95" s="5"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="6"/>
+      <c r="A96" s="5"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="6"/>
+      <c r="A97" s="5"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="6"/>
+      <c r="A98" s="5"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="6"/>
+      <c r="A99" s="5"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="6"/>
+      <c r="A100" s="5"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="6"/>
+      <c r="A101" s="5"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="6"/>
+      <c r="A102" s="5"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="6"/>
+      <c r="A103" s="5"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="6"/>
+      <c r="A104" s="5"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="6"/>
+      <c r="A105" s="5"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="6"/>
+      <c r="A106" s="5"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="6"/>
+      <c r="A107" s="5"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="6"/>
+      <c r="A108" s="5"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="6"/>
+      <c r="A109" s="5"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="6"/>
+      <c r="A110" s="5"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="6"/>
+      <c r="A111" s="5"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="6"/>
+      <c r="A112" s="5"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="6"/>
+      <c r="A113" s="5"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="6"/>
+      <c r="A114" s="5"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="6"/>
+      <c r="A115" s="5"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="6"/>
+      <c r="A116" s="5"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="6"/>
+      <c r="A117" s="5"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="6"/>
+      <c r="A118" s="5"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="6"/>
+      <c r="A119" s="5"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="6"/>
+      <c r="A120" s="5"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="6"/>
+      <c r="A121" s="5"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="6"/>
+      <c r="A122" s="5"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="6"/>
+      <c r="A123" s="5"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="6"/>
+      <c r="A124" s="5"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="6"/>
+      <c r="A125" s="5"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="6"/>
+      <c r="A126" s="5"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="6"/>
+      <c r="A127" s="5"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="6"/>
+      <c r="A128" s="5"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="6"/>
+      <c r="A129" s="5"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="6"/>
+      <c r="A130" s="5"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="6"/>
+      <c r="A131" s="5"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="6"/>
+      <c r="A132" s="5"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="6"/>
+      <c r="A133" s="5"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="6"/>
+      <c r="A134" s="5"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="6"/>
+      <c r="A135" s="5"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="6"/>
+      <c r="A136" s="5"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="6"/>
+      <c r="A137" s="5"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="6"/>
+      <c r="A138" s="5"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="6"/>
+      <c r="A139" s="5"/>
     </row>
     <row r="140" ht="15.75" customHeight="1"/>
     <row r="141" ht="15.75" customHeight="1"/>
@@ -1678,6 +1723,7 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
